--- a/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
+++ b/SharePoint/Docs/MS-SITESS/MS-SITESS_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10216"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9C72DB-863D-1146-BF33-AA1364A532D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="120" windowWidth="15405" windowHeight="6840" tabRatio="570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -4160,9 +4161,6 @@
     <t>[In Appendix B: Product Behavior] &lt;4&gt; Section 3.1.4.2.2.1: If the value of cabSize is less than zero, Implementation does return a value of 1 or 7  but the server does not successfully complete the operation. The return code is not deterministic.(Windows SharePoint Services 3.0, SharePoint Foundation 2010, and SharePoint Foundation 2013 follow this behavior.)</t>
   </si>
   <si>
-    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 and SharePoint Foundation 2013 follow this behavior.)</t>
-  </si>
-  <si>
     <t>[In Appendix B: Product Behavior] Implementation does support this method [IsScriptSafeUrl]. &lt;19&gt; Section 3.1.4.11:  Only SharePoint Foundation 2013 supports this method.</t>
   </si>
   <si>
@@ -4197,9 +4195,6 @@
   </si>
   <si>
     <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to false. (SharePoint Foundation 2013 and above follow this hebavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010.</t>
   </si>
   <si>
     <t>[In Appendix B: Product Behavior]Implementation does not be enabled for the subsite to be created, when presence set to omitted. (SharePoint Foundation 2013 and above follow this hebavior.)</t>
@@ -4267,17 +4262,25 @@
   </si>
   <si>
     <t>MS-SITESS_R557001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] &lt;7&gt; Section 3.1.4.5.2.2: Implementation does not return the SOAP fault. It returns a successful GetSiteTemplatesResponse with an empty TemplateList element.(Microsoft SharePoint Foundation 2010 and SharePoint Foundation 2013，SharePoint Server 2016 and SharePoint Server 2019 follow this behavior.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In Appendix B: Product Behavior] Implementation does be enabled for the subsite to be created, when presence set to omitted, and anonymous authentication is not allowed for the subsite.  &lt;17&gt; Section 3.1.4.9.2.1:  If anonymous authentication is not allowed for the subsite, the online presence information will be enabled on SharePoint Foundation 2010 and Microsoft SharePoint Foundation 2013 Service Pack 1 (SP1)..</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4698,27 +4701,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4782,9 +4764,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1508">
     <dxf>
@@ -12963,34 +12966,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I497" tableType="xml" totalsRowShown="0">
-  <autoFilter ref="A19:I497"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I497" tableType="xml" totalsRowShown="0">
+  <autoFilter ref="A19:I497" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="14">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="12">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="11">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="10">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="9">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="7">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="7">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -12999,19 +13002,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -13330,28 +13333,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M497"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A486" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C490" sqref="C490"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="85" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
-    <col min="9" max="9" width="28.75" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="40" t="s">
         <v>900</v>
       </c>
@@ -13367,7 +13372,7 @@
       <c r="I1" s="43"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="44" t="s">
         <v>901</v>
       </c>
@@ -13381,13 +13386,13 @@
       <c r="I2" s="43"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="49"/>
       <c r="B3" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E3" s="48" t="s">
         <v>999</v>
@@ -13400,137 +13405,137 @@
       <c r="I3" s="43"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:11" ht="19">
+      <c r="A4" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="59"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="80"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="83"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="84" t="s">
         <v>912</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="47"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="85" t="s">
         <v>913</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="47"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="75.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="64" t="s">
         <v>919</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="47"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="62.25" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="67" t="s">
         <v>920</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="76"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
       <c r="J10" s="47"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="63" t="s">
         <v>914</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
@@ -13540,16 +13545,16 @@
       <c r="C12" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="72"/>
       <c r="J12" s="47"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
       <c r="A13" s="32" t="s">
         <v>7</v>
       </c>
@@ -13559,15 +13564,15 @@
       <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="82"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="75"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="15">
       <c r="A14" s="33" t="s">
         <v>8</v>
       </c>
@@ -13577,16 +13582,16 @@
       <c r="C14" s="9" t="s">
         <v>916</v>
       </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="82"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="47"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="34" t="s">
         <v>4</v>
       </c>
@@ -13596,66 +13601,66 @@
       <c r="C15" s="9" t="s">
         <v>917</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="85"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="30" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="58" t="s">
         <v>921</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
       <c r="J16" s="47"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" ht="69" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="60" t="s">
         <v>922</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="63" t="s">
         <v>918</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
       <c r="J18" s="47"/>
       <c r="K18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:13" ht="30">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -13684,7 +13689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" ht="15">
       <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
@@ -13709,7 +13714,7 @@
       </c>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" ht="45">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -13736,7 +13741,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:13" ht="45">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -13765,7 +13770,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:13" ht="30">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -13790,7 +13795,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" ht="45">
       <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
@@ -13815,7 +13820,7 @@
       </c>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" ht="30">
       <c r="A25" s="7" t="s">
         <v>40</v>
       </c>
@@ -13842,7 +13847,7 @@
       </c>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:13" ht="30">
       <c r="A26" s="7" t="s">
         <v>43</v>
       </c>
@@ -13869,7 +13874,7 @@
       </c>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:13" ht="30">
       <c r="A27" s="7" t="s">
         <v>45</v>
       </c>
@@ -13894,7 +13899,7 @@
       </c>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" ht="30">
       <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
@@ -13919,7 +13924,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" ht="30">
       <c r="A29" s="7" t="s">
         <v>50</v>
       </c>
@@ -13944,7 +13949,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:13" ht="54" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:13" ht="60">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -13969,7 +13974,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:13" ht="30">
       <c r="A31" s="7" t="s">
         <v>55</v>
       </c>
@@ -13994,7 +13999,7 @@
       </c>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:13" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:13" ht="30">
       <c r="A32" s="7" t="s">
         <v>57</v>
       </c>
@@ -14019,7 +14024,7 @@
       </c>
       <c r="I32" s="16"/>
     </row>
-    <row r="33" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
@@ -14044,7 +14049,7 @@
       </c>
       <c r="I33" s="16"/>
     </row>
-    <row r="34" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -14069,7 +14074,7 @@
       </c>
       <c r="I34" s="16"/>
     </row>
-    <row r="35" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="7" t="s">
         <v>63</v>
       </c>
@@ -14094,7 +14099,7 @@
       </c>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="7" t="s">
         <v>65</v>
       </c>
@@ -14119,7 +14124,7 @@
       </c>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="7" t="s">
         <v>67</v>
       </c>
@@ -14144,7 +14149,7 @@
       </c>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" s="7" t="s">
         <v>68</v>
       </c>
@@ -14169,7 +14174,7 @@
       </c>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="30">
       <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
@@ -14194,7 +14199,7 @@
       </c>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="30">
       <c r="A40" s="7" t="s">
         <v>72</v>
       </c>
@@ -14219,7 +14224,7 @@
       </c>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="7" t="s">
         <v>1003</v>
       </c>
@@ -14244,7 +14249,7 @@
       </c>
       <c r="I41" s="54"/>
     </row>
-    <row r="42" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="30">
       <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
@@ -14269,7 +14274,7 @@
       </c>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="150">
       <c r="A43" s="7" t="s">
         <v>76</v>
       </c>
@@ -14294,7 +14299,7 @@
       </c>
       <c r="I43" s="16"/>
     </row>
-    <row r="44" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44" s="7" t="s">
         <v>78</v>
       </c>
@@ -14319,7 +14324,7 @@
       </c>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="30">
       <c r="A45" s="7" t="s">
         <v>80</v>
       </c>
@@ -14344,7 +14349,7 @@
       </c>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="7" t="s">
         <v>82</v>
       </c>
@@ -14369,7 +14374,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="30">
       <c r="A47" s="7" t="s">
         <v>1008</v>
       </c>
@@ -14394,7 +14399,7 @@
       </c>
       <c r="I47" s="54"/>
     </row>
-    <row r="48" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="120">
       <c r="A48" s="7" t="s">
         <v>1009</v>
       </c>
@@ -14419,7 +14424,7 @@
       </c>
       <c r="I48" s="54"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="7" t="s">
         <v>1010</v>
       </c>
@@ -14440,11 +14445,11 @@
         <v>16</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I49" s="54"/>
     </row>
-    <row r="50" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" ht="30">
       <c r="A50" s="7" t="s">
         <v>84</v>
       </c>
@@ -14469,7 +14474,7 @@
       </c>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="30">
       <c r="A51" s="7" t="s">
         <v>86</v>
       </c>
@@ -14494,7 +14499,7 @@
       </c>
       <c r="I51" s="16"/>
     </row>
-    <row r="52" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="7" t="s">
         <v>88</v>
       </c>
@@ -14519,7 +14524,7 @@
       </c>
       <c r="I52" s="16"/>
     </row>
-    <row r="53" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" ht="30">
       <c r="A53" s="7" t="s">
         <v>90</v>
       </c>
@@ -14544,7 +14549,7 @@
       </c>
       <c r="I53" s="16"/>
     </row>
-    <row r="54" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" ht="30">
       <c r="A54" s="7" t="s">
         <v>92</v>
       </c>
@@ -14569,7 +14574,7 @@
       </c>
       <c r="I54" s="16"/>
     </row>
-    <row r="55" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" ht="75">
       <c r="A55" s="7" t="s">
         <v>94</v>
       </c>
@@ -14594,7 +14599,7 @@
       </c>
       <c r="I55" s="16"/>
     </row>
-    <row r="56" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="45">
       <c r="A56" s="7" t="s">
         <v>96</v>
       </c>
@@ -14619,7 +14624,7 @@
       </c>
       <c r="I56" s="16"/>
     </row>
-    <row r="57" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" ht="60">
       <c r="A57" s="7" t="s">
         <v>98</v>
       </c>
@@ -14644,7 +14649,7 @@
       </c>
       <c r="I57" s="16"/>
     </row>
-    <row r="58" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" ht="105">
       <c r="A58" s="7" t="s">
         <v>101</v>
       </c>
@@ -14669,7 +14674,7 @@
       </c>
       <c r="I58" s="16"/>
     </row>
-    <row r="59" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" ht="30">
       <c r="A59" s="7" t="s">
         <v>104</v>
       </c>
@@ -14694,7 +14699,7 @@
       </c>
       <c r="I59" s="16"/>
     </row>
-    <row r="60" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" ht="30">
       <c r="A60" s="7" t="s">
         <v>106</v>
       </c>
@@ -14719,7 +14724,7 @@
       </c>
       <c r="I60" s="16"/>
     </row>
-    <row r="61" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="30">
       <c r="A61" s="7" t="s">
         <v>108</v>
       </c>
@@ -14744,7 +14749,7 @@
       </c>
       <c r="I61" s="16"/>
     </row>
-    <row r="62" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="30">
       <c r="A62" s="7" t="s">
         <v>110</v>
       </c>
@@ -14769,7 +14774,7 @@
       </c>
       <c r="I62" s="16"/>
     </row>
-    <row r="63" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="7" t="s">
         <v>111</v>
       </c>
@@ -14794,7 +14799,7 @@
       </c>
       <c r="I63" s="16"/>
     </row>
-    <row r="64" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" ht="30">
       <c r="A64" s="7" t="s">
         <v>113</v>
       </c>
@@ -14819,7 +14824,7 @@
       </c>
       <c r="I64" s="16"/>
     </row>
-    <row r="65" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="30">
       <c r="A65" s="7" t="s">
         <v>115</v>
       </c>
@@ -14844,7 +14849,7 @@
       </c>
       <c r="I65" s="16"/>
     </row>
-    <row r="66" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="30">
       <c r="A66" s="7" t="s">
         <v>117</v>
       </c>
@@ -14869,7 +14874,7 @@
       </c>
       <c r="I66" s="16"/>
     </row>
-    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="45">
       <c r="A67" s="7" t="s">
         <v>119</v>
       </c>
@@ -14894,7 +14899,7 @@
       </c>
       <c r="I67" s="16"/>
     </row>
-    <row r="68" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="30">
       <c r="A68" s="7" t="s">
         <v>121</v>
       </c>
@@ -14919,7 +14924,7 @@
       </c>
       <c r="I68" s="16"/>
     </row>
-    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" ht="45">
       <c r="A69" s="7" t="s">
         <v>122</v>
       </c>
@@ -14946,7 +14951,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="75">
       <c r="A70" s="7" t="s">
         <v>124</v>
       </c>
@@ -14971,7 +14976,7 @@
       </c>
       <c r="I70" s="16"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="7" t="s">
         <v>126</v>
       </c>
@@ -14996,7 +15001,7 @@
       </c>
       <c r="I71" s="16"/>
     </row>
-    <row r="72" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="30">
       <c r="A72" s="7" t="s">
         <v>128</v>
       </c>
@@ -15021,7 +15026,7 @@
       </c>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="30">
       <c r="A73" s="7" t="s">
         <v>130</v>
       </c>
@@ -15046,7 +15051,7 @@
       </c>
       <c r="I73" s="16"/>
     </row>
-    <row r="74" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="30">
       <c r="A74" s="7" t="s">
         <v>133</v>
       </c>
@@ -15071,7 +15076,7 @@
       </c>
       <c r="I74" s="16"/>
     </row>
-    <row r="75" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="45">
       <c r="A75" s="7" t="s">
         <v>136</v>
       </c>
@@ -15096,7 +15101,7 @@
       </c>
       <c r="I75" s="16"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="7" t="s">
         <v>138</v>
       </c>
@@ -15121,7 +15126,7 @@
       </c>
       <c r="I76" s="16"/>
     </row>
-    <row r="77" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="30">
       <c r="A77" s="7" t="s">
         <v>140</v>
       </c>
@@ -15146,7 +15151,7 @@
       </c>
       <c r="I77" s="16"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="7" t="s">
         <v>143</v>
       </c>
@@ -15171,7 +15176,7 @@
       </c>
       <c r="I78" s="16"/>
     </row>
-    <row r="79" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="30">
       <c r="A79" s="7" t="s">
         <v>145</v>
       </c>
@@ -15196,7 +15201,7 @@
       </c>
       <c r="I79" s="16"/>
     </row>
-    <row r="80" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="30">
       <c r="A80" s="7" t="s">
         <v>147</v>
       </c>
@@ -15221,7 +15226,7 @@
       </c>
       <c r="I80" s="16"/>
     </row>
-    <row r="81" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="240">
       <c r="A81" s="7" t="s">
         <v>150</v>
       </c>
@@ -15246,7 +15251,7 @@
       </c>
       <c r="I81" s="16"/>
     </row>
-    <row r="82" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="30">
       <c r="A82" s="7" t="s">
         <v>152</v>
       </c>
@@ -15271,7 +15276,7 @@
       </c>
       <c r="I82" s="16"/>
     </row>
-    <row r="83" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="30">
       <c r="A83" s="7" t="s">
         <v>154</v>
       </c>
@@ -15296,7 +15301,7 @@
       </c>
       <c r="I83" s="16"/>
     </row>
-    <row r="84" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="60">
       <c r="A84" s="7" t="s">
         <v>156</v>
       </c>
@@ -15323,7 +15328,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="45">
       <c r="A85" s="7" t="s">
         <v>158</v>
       </c>
@@ -15350,7 +15355,7 @@
       </c>
       <c r="I85" s="16"/>
     </row>
-    <row r="86" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="30">
       <c r="A86" s="7" t="s">
         <v>161</v>
       </c>
@@ -15375,7 +15380,7 @@
       </c>
       <c r="I86" s="16"/>
     </row>
-    <row r="87" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="45">
       <c r="A87" s="7" t="s">
         <v>163</v>
       </c>
@@ -15400,7 +15405,7 @@
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="7" t="s">
         <v>165</v>
       </c>
@@ -15425,7 +15430,7 @@
       </c>
       <c r="I88" s="16"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="7" t="s">
         <v>167</v>
       </c>
@@ -15450,7 +15455,7 @@
       </c>
       <c r="I89" s="16"/>
     </row>
-    <row r="90" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="30">
       <c r="A90" s="7" t="s">
         <v>169</v>
       </c>
@@ -15475,7 +15480,7 @@
       </c>
       <c r="I90" s="16"/>
     </row>
-    <row r="91" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="45">
       <c r="A91" s="7" t="s">
         <v>171</v>
       </c>
@@ -15500,7 +15505,7 @@
       </c>
       <c r="I91" s="16"/>
     </row>
-    <row r="92" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="45">
       <c r="A92" s="7" t="s">
         <v>173</v>
       </c>
@@ -15525,7 +15530,7 @@
       </c>
       <c r="I92" s="16"/>
     </row>
-    <row r="93" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="60">
       <c r="A93" s="7" t="s">
         <v>175</v>
       </c>
@@ -15550,7 +15555,7 @@
       </c>
       <c r="I93" s="16"/>
     </row>
-    <row r="94" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="60">
       <c r="A94" s="7" t="s">
         <v>177</v>
       </c>
@@ -15575,7 +15580,7 @@
       </c>
       <c r="I94" s="16"/>
     </row>
-    <row r="95" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" ht="30">
       <c r="A95" s="7" t="s">
         <v>180</v>
       </c>
@@ -15600,7 +15605,7 @@
       </c>
       <c r="I95" s="16"/>
     </row>
-    <row r="96" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" ht="30">
       <c r="A96" s="7" t="s">
         <v>182</v>
       </c>
@@ -15625,7 +15630,7 @@
       </c>
       <c r="I96" s="16"/>
     </row>
-    <row r="97" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" ht="30">
       <c r="A97" s="7" t="s">
         <v>183</v>
       </c>
@@ -15650,7 +15655,7 @@
       </c>
       <c r="I97" s="16"/>
     </row>
-    <row r="98" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" ht="135">
       <c r="A98" s="7" t="s">
         <v>179</v>
       </c>
@@ -15675,7 +15680,7 @@
       </c>
       <c r="I98" s="16"/>
     </row>
-    <row r="99" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" ht="30">
       <c r="A99" s="7" t="s">
         <v>187</v>
       </c>
@@ -15700,7 +15705,7 @@
       </c>
       <c r="I99" s="16"/>
     </row>
-    <row r="100" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="7" t="s">
         <v>189</v>
       </c>
@@ -15727,7 +15732,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" ht="30">
       <c r="A101" s="7" t="s">
         <v>192</v>
       </c>
@@ -15752,7 +15757,7 @@
       </c>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" ht="75">
       <c r="A102" s="7" t="s">
         <v>193</v>
       </c>
@@ -15777,7 +15782,7 @@
       </c>
       <c r="I102" s="16"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="7" t="s">
         <v>195</v>
       </c>
@@ -15802,7 +15807,7 @@
       </c>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" ht="30">
       <c r="A104" s="7" t="s">
         <v>197</v>
       </c>
@@ -15827,7 +15832,7 @@
       </c>
       <c r="I104" s="16"/>
     </row>
-    <row r="105" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" ht="60">
       <c r="A105" s="7" t="s">
         <v>199</v>
       </c>
@@ -15852,7 +15857,7 @@
       </c>
       <c r="I105" s="16"/>
     </row>
-    <row r="106" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" ht="30">
       <c r="A106" s="7" t="s">
         <v>201</v>
       </c>
@@ -15877,7 +15882,7 @@
       </c>
       <c r="I106" s="16"/>
     </row>
-    <row r="107" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" ht="75">
       <c r="A107" s="7" t="s">
         <v>203</v>
       </c>
@@ -15901,10 +15906,10 @@
         <v>18</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="7" t="s">
         <v>205</v>
       </c>
@@ -15929,7 +15934,7 @@
       </c>
       <c r="I108" s="16"/>
     </row>
-    <row r="109" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="30">
       <c r="A109" s="7" t="s">
         <v>207</v>
       </c>
@@ -15954,7 +15959,7 @@
       </c>
       <c r="I109" s="16"/>
     </row>
-    <row r="110" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="30">
       <c r="A110" s="7" t="s">
         <v>210</v>
       </c>
@@ -15979,7 +15984,7 @@
       </c>
       <c r="I110" s="16"/>
     </row>
-    <row r="111" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="30">
       <c r="A111" s="7" t="s">
         <v>213</v>
       </c>
@@ -16004,7 +16009,7 @@
       </c>
       <c r="I111" s="16"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="7" t="s">
         <v>215</v>
       </c>
@@ -16029,7 +16034,7 @@
       </c>
       <c r="I112" s="16"/>
     </row>
-    <row r="113" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="30">
       <c r="A113" s="7" t="s">
         <v>217</v>
       </c>
@@ -16054,7 +16059,7 @@
       </c>
       <c r="I113" s="16"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="7" t="s">
         <v>220</v>
       </c>
@@ -16079,7 +16084,7 @@
       </c>
       <c r="I114" s="16"/>
     </row>
-    <row r="115" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="30">
       <c r="A115" s="7" t="s">
         <v>997</v>
       </c>
@@ -16104,7 +16109,7 @@
       </c>
       <c r="I115" s="16"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="7" t="s">
         <v>223</v>
       </c>
@@ -16129,7 +16134,7 @@
       </c>
       <c r="I116" s="16"/>
     </row>
-    <row r="117" spans="1:9" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="285">
       <c r="A117" s="7" t="s">
         <v>226</v>
       </c>
@@ -16154,7 +16159,7 @@
       </c>
       <c r="I117" s="16"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="7" t="s">
         <v>229</v>
       </c>
@@ -16179,7 +16184,7 @@
       </c>
       <c r="I118" s="16"/>
     </row>
-    <row r="119" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="75">
       <c r="A119" s="7" t="s">
         <v>231</v>
       </c>
@@ -16204,7 +16209,7 @@
       </c>
       <c r="I119" s="16"/>
     </row>
-    <row r="120" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="30">
       <c r="A120" s="7" t="s">
         <v>233</v>
       </c>
@@ -16229,7 +16234,7 @@
       </c>
       <c r="I120" s="16"/>
     </row>
-    <row r="121" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="45">
       <c r="A121" s="7" t="s">
         <v>235</v>
       </c>
@@ -16254,7 +16259,7 @@
       </c>
       <c r="I121" s="16"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="7" t="s">
         <v>237</v>
       </c>
@@ -16279,7 +16284,7 @@
       </c>
       <c r="I122" s="16"/>
     </row>
-    <row r="123" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="45">
       <c r="A123" s="7" t="s">
         <v>927</v>
       </c>
@@ -16306,7 +16311,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="45">
       <c r="A124" s="7" t="s">
         <v>930</v>
       </c>
@@ -16335,7 +16340,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" ht="30">
       <c r="A125" s="7" t="s">
         <v>239</v>
       </c>
@@ -16360,7 +16365,7 @@
       </c>
       <c r="I125" s="16"/>
     </row>
-    <row r="126" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="30">
       <c r="A126" s="7" t="s">
         <v>241</v>
       </c>
@@ -16385,7 +16390,7 @@
       </c>
       <c r="I126" s="16"/>
     </row>
-    <row r="127" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="30">
       <c r="A127" s="7" t="s">
         <v>243</v>
       </c>
@@ -16410,7 +16415,7 @@
       </c>
       <c r="I127" s="16"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="7" t="s">
         <v>244</v>
       </c>
@@ -16435,7 +16440,7 @@
       </c>
       <c r="I128" s="16"/>
     </row>
-    <row r="129" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="30">
       <c r="A129" s="7" t="s">
         <v>246</v>
       </c>
@@ -16460,7 +16465,7 @@
       </c>
       <c r="I129" s="13"/>
     </row>
-    <row r="130" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="7" t="s">
         <v>248</v>
       </c>
@@ -16485,7 +16490,7 @@
       </c>
       <c r="I130" s="16"/>
     </row>
-    <row r="131" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="45">
       <c r="A131" s="7" t="s">
         <v>250</v>
       </c>
@@ -16510,7 +16515,7 @@
       </c>
       <c r="I131" s="13"/>
     </row>
-    <row r="132" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="30">
       <c r="A132" s="7" t="s">
         <v>252</v>
       </c>
@@ -16535,7 +16540,7 @@
       </c>
       <c r="I132" s="16"/>
     </row>
-    <row r="133" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="7" t="s">
         <v>254</v>
       </c>
@@ -16560,7 +16565,7 @@
       </c>
       <c r="I133" s="16"/>
     </row>
-    <row r="134" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" ht="30">
       <c r="A134" s="7" t="s">
         <v>256</v>
       </c>
@@ -16585,7 +16590,7 @@
       </c>
       <c r="I134" s="16"/>
     </row>
-    <row r="135" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" ht="30">
       <c r="A135" s="7" t="s">
         <v>258</v>
       </c>
@@ -16610,7 +16615,7 @@
       </c>
       <c r="I135" s="16"/>
     </row>
-    <row r="136" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" ht="60">
       <c r="A136" s="7" t="s">
         <v>260</v>
       </c>
@@ -16634,10 +16639,10 @@
         <v>18</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="150">
       <c r="A137" s="7" t="s">
         <v>262</v>
       </c>
@@ -16662,7 +16667,7 @@
       </c>
       <c r="I137" s="16"/>
     </row>
-    <row r="138" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" ht="30">
       <c r="A138" s="7" t="s">
         <v>263</v>
       </c>
@@ -16687,7 +16692,7 @@
       </c>
       <c r="I138" s="16"/>
     </row>
-    <row r="139" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" ht="135">
       <c r="A139" s="7" t="s">
         <v>228</v>
       </c>
@@ -16712,7 +16717,7 @@
       </c>
       <c r="I139" s="16"/>
     </row>
-    <row r="140" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" ht="30">
       <c r="A140" s="7" t="s">
         <v>267</v>
       </c>
@@ -16737,7 +16742,7 @@
       </c>
       <c r="I140" s="16"/>
     </row>
-    <row r="141" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" ht="30">
       <c r="A141" s="7" t="s">
         <v>268</v>
       </c>
@@ -16762,7 +16767,7 @@
       </c>
       <c r="I141" s="16"/>
     </row>
-    <row r="142" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" ht="30">
       <c r="A142" s="7" t="s">
         <v>270</v>
       </c>
@@ -16787,7 +16792,7 @@
       </c>
       <c r="I142" s="16"/>
     </row>
-    <row r="143" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:9" ht="30">
       <c r="A143" s="7" t="s">
         <v>272</v>
       </c>
@@ -16812,7 +16817,7 @@
       </c>
       <c r="I143" s="16"/>
     </row>
-    <row r="144" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:9" ht="45">
       <c r="A144" s="7" t="s">
         <v>274</v>
       </c>
@@ -16837,7 +16842,7 @@
       </c>
       <c r="I144" s="16"/>
     </row>
-    <row r="145" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:9" ht="45">
       <c r="A145" s="7" t="s">
         <v>276</v>
       </c>
@@ -16862,7 +16867,7 @@
       </c>
       <c r="I145" s="13"/>
     </row>
-    <row r="146" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:9" ht="45">
       <c r="A146" s="7" t="s">
         <v>277</v>
       </c>
@@ -16887,7 +16892,7 @@
       </c>
       <c r="I146" s="13"/>
     </row>
-    <row r="147" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:9" ht="30">
       <c r="A147" s="7" t="s">
         <v>278</v>
       </c>
@@ -16912,7 +16917,7 @@
       </c>
       <c r="I147" s="16"/>
     </row>
-    <row r="148" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:9" ht="45">
       <c r="A148" s="7" t="s">
         <v>279</v>
       </c>
@@ -16937,7 +16942,7 @@
       </c>
       <c r="I148" s="16"/>
     </row>
-    <row r="149" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:9" ht="30">
       <c r="A149" s="7" t="s">
         <v>281</v>
       </c>
@@ -16962,7 +16967,7 @@
       </c>
       <c r="I149" s="16"/>
     </row>
-    <row r="150" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:9" ht="45">
       <c r="A150" s="7" t="s">
         <v>282</v>
       </c>
@@ -16989,7 +16994,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:9" ht="75">
       <c r="A151" s="7" t="s">
         <v>285</v>
       </c>
@@ -17014,7 +17019,7 @@
       </c>
       <c r="I151" s="16"/>
     </row>
-    <row r="152" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:9" ht="30">
       <c r="A152" s="7" t="s">
         <v>287</v>
       </c>
@@ -17039,7 +17044,7 @@
       </c>
       <c r="I152" s="16"/>
     </row>
-    <row r="153" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:9" ht="45">
       <c r="A153" s="7" t="s">
         <v>289</v>
       </c>
@@ -17064,7 +17069,7 @@
       </c>
       <c r="I153" s="16"/>
     </row>
-    <row r="154" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:9" ht="45">
       <c r="A154" s="7" t="s">
         <v>291</v>
       </c>
@@ -17089,7 +17094,7 @@
       </c>
       <c r="I154" s="16"/>
     </row>
-    <row r="155" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:9" ht="30">
       <c r="A155" s="7" t="s">
         <v>294</v>
       </c>
@@ -17114,7 +17119,7 @@
       </c>
       <c r="I155" s="16"/>
     </row>
-    <row r="156" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:9" ht="45">
       <c r="A156" s="7" t="s">
         <v>297</v>
       </c>
@@ -17139,7 +17144,7 @@
       </c>
       <c r="I156" s="16"/>
     </row>
-    <row r="157" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:9" ht="30">
       <c r="A157" s="7" t="s">
         <v>299</v>
       </c>
@@ -17164,7 +17169,7 @@
       </c>
       <c r="I157" s="16"/>
     </row>
-    <row r="158" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:9" ht="30">
       <c r="A158" s="7" t="s">
         <v>301</v>
       </c>
@@ -17189,7 +17194,7 @@
       </c>
       <c r="I158" s="16"/>
     </row>
-    <row r="159" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="30">
       <c r="A159" s="7" t="s">
         <v>304</v>
       </c>
@@ -17214,7 +17219,7 @@
       </c>
       <c r="I159" s="16"/>
     </row>
-    <row r="160" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="45">
       <c r="A160" s="7" t="s">
         <v>306</v>
       </c>
@@ -17239,7 +17244,7 @@
       </c>
       <c r="I160" s="16"/>
     </row>
-    <row r="161" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="30">
       <c r="A161" s="7" t="s">
         <v>308</v>
       </c>
@@ -17264,7 +17269,7 @@
       </c>
       <c r="I161" s="16"/>
     </row>
-    <row r="162" spans="1:9" ht="216" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" ht="240">
       <c r="A162" s="7" t="s">
         <v>311</v>
       </c>
@@ -17289,7 +17294,7 @@
       </c>
       <c r="I162" s="16"/>
     </row>
-    <row r="163" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="30">
       <c r="A163" s="7" t="s">
         <v>314</v>
       </c>
@@ -17314,7 +17319,7 @@
       </c>
       <c r="I163" s="16"/>
     </row>
-    <row r="164" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="30">
       <c r="A164" s="7" t="s">
         <v>316</v>
       </c>
@@ -17339,7 +17344,7 @@
       </c>
       <c r="I164" s="16"/>
     </row>
-    <row r="165" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="75">
       <c r="A165" s="7" t="s">
         <v>318</v>
       </c>
@@ -17366,7 +17371,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" ht="60">
       <c r="A166" s="7" t="s">
         <v>319</v>
       </c>
@@ -17393,7 +17398,7 @@
       </c>
       <c r="I166" s="16"/>
     </row>
-    <row r="167" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="45">
       <c r="A167" s="7" t="s">
         <v>320</v>
       </c>
@@ -17418,7 +17423,7 @@
       </c>
       <c r="I167" s="16"/>
     </row>
-    <row r="168" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="45">
       <c r="A168" s="7" t="s">
         <v>322</v>
       </c>
@@ -17443,7 +17448,7 @@
       </c>
       <c r="I168" s="13"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="7" t="s">
         <v>324</v>
       </c>
@@ -17468,7 +17473,7 @@
       </c>
       <c r="I169" s="16"/>
     </row>
-    <row r="170" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="30">
       <c r="A170" s="7" t="s">
         <v>326</v>
       </c>
@@ -17493,7 +17498,7 @@
       </c>
       <c r="I170" s="16"/>
     </row>
-    <row r="171" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="30">
       <c r="A171" s="7" t="s">
         <v>328</v>
       </c>
@@ -17518,7 +17523,7 @@
       </c>
       <c r="I171" s="16"/>
     </row>
-    <row r="172" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="30">
       <c r="A172" s="7" t="s">
         <v>330</v>
       </c>
@@ -17543,7 +17548,7 @@
       </c>
       <c r="I172" s="16"/>
     </row>
-    <row r="173" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="45">
       <c r="A173" s="7" t="s">
         <v>332</v>
       </c>
@@ -17568,7 +17573,7 @@
       </c>
       <c r="I173" s="13"/>
     </row>
-    <row r="174" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="30">
       <c r="A174" s="7" t="s">
         <v>333</v>
       </c>
@@ -17593,7 +17598,7 @@
       </c>
       <c r="I174" s="16"/>
     </row>
-    <row r="175" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="30">
       <c r="A175" s="7" t="s">
         <v>335</v>
       </c>
@@ -17618,7 +17623,7 @@
       </c>
       <c r="I175" s="16"/>
     </row>
-    <row r="176" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="45">
       <c r="A176" s="7" t="s">
         <v>337</v>
       </c>
@@ -17643,7 +17648,7 @@
       </c>
       <c r="I176" s="16"/>
     </row>
-    <row r="177" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="30">
       <c r="A177" s="7" t="s">
         <v>339</v>
       </c>
@@ -17668,7 +17673,7 @@
       </c>
       <c r="I177" s="16"/>
     </row>
-    <row r="178" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="135">
       <c r="A178" s="7" t="s">
         <v>313</v>
       </c>
@@ -17693,7 +17698,7 @@
       </c>
       <c r="I178" s="16"/>
     </row>
-    <row r="179" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="30">
       <c r="A179" s="7" t="s">
         <v>343</v>
       </c>
@@ -17718,7 +17723,7 @@
       </c>
       <c r="I179" s="16"/>
     </row>
-    <row r="180" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="45">
       <c r="A180" s="7" t="s">
         <v>345</v>
       </c>
@@ -17745,7 +17750,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" ht="60">
       <c r="A181" s="7" t="s">
         <v>348</v>
       </c>
@@ -17770,7 +17775,7 @@
       </c>
       <c r="I181" s="16"/>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="7" t="s">
         <v>350</v>
       </c>
@@ -17795,7 +17800,7 @@
       </c>
       <c r="I182" s="16"/>
     </row>
-    <row r="183" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="30">
       <c r="A183" s="7" t="s">
         <v>352</v>
       </c>
@@ -17820,7 +17825,7 @@
       </c>
       <c r="I183" s="16"/>
     </row>
-    <row r="184" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="30">
       <c r="A184" s="7" t="s">
         <v>354</v>
       </c>
@@ -17845,7 +17850,7 @@
       </c>
       <c r="I184" s="16"/>
     </row>
-    <row r="185" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" s="7" t="s">
         <v>357</v>
       </c>
@@ -17870,7 +17875,7 @@
       </c>
       <c r="I185" s="16"/>
     </row>
-    <row r="186" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="30">
       <c r="A186" s="7" t="s">
         <v>360</v>
       </c>
@@ -17895,7 +17900,7 @@
       </c>
       <c r="I186" s="16"/>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="7" t="s">
         <v>362</v>
       </c>
@@ -17920,7 +17925,7 @@
       </c>
       <c r="I187" s="16"/>
     </row>
-    <row r="188" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="30">
       <c r="A188" s="7" t="s">
         <v>364</v>
       </c>
@@ -17945,7 +17950,7 @@
       </c>
       <c r="I188" s="16"/>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="7" t="s">
         <v>367</v>
       </c>
@@ -17970,7 +17975,7 @@
       </c>
       <c r="I189" s="16"/>
     </row>
-    <row r="190" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="30">
       <c r="A190" s="7" t="s">
         <v>369</v>
       </c>
@@ -17995,7 +18000,7 @@
       </c>
       <c r="I190" s="16"/>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="7" t="s">
         <v>371</v>
       </c>
@@ -18020,7 +18025,7 @@
       </c>
       <c r="I191" s="16"/>
     </row>
-    <row r="192" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="120">
       <c r="A192" s="7" t="s">
         <v>374</v>
       </c>
@@ -18045,7 +18050,7 @@
       </c>
       <c r="I192" s="16"/>
     </row>
-    <row r="193" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="30">
       <c r="A193" s="7" t="s">
         <v>376</v>
       </c>
@@ -18070,7 +18075,7 @@
       </c>
       <c r="I193" s="16"/>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="7" t="s">
         <v>378</v>
       </c>
@@ -18095,7 +18100,7 @@
       </c>
       <c r="I194" s="16"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="7" t="s">
         <v>380</v>
       </c>
@@ -18120,7 +18125,7 @@
       </c>
       <c r="I195" s="16"/>
     </row>
-    <row r="196" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="135">
       <c r="A196" s="7" t="s">
         <v>375</v>
       </c>
@@ -18145,7 +18150,7 @@
       </c>
       <c r="I196" s="16"/>
     </row>
-    <row r="197" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="30">
       <c r="A197" s="7" t="s">
         <v>383</v>
       </c>
@@ -18170,7 +18175,7 @@
       </c>
       <c r="I197" s="16"/>
     </row>
-    <row r="198" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="30">
       <c r="A198" s="7" t="s">
         <v>385</v>
       </c>
@@ -18195,7 +18200,7 @@
       </c>
       <c r="I198" s="16"/>
     </row>
-    <row r="199" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:9" ht="30">
       <c r="A199" s="7" t="s">
         <v>387</v>
       </c>
@@ -18220,7 +18225,7 @@
       </c>
       <c r="I199" s="16"/>
     </row>
-    <row r="200" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:9" ht="30">
       <c r="A200" s="7" t="s">
         <v>389</v>
       </c>
@@ -18245,7 +18250,7 @@
       </c>
       <c r="I200" s="16"/>
     </row>
-    <row r="201" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:9" ht="30">
       <c r="A201" s="7" t="s">
         <v>391</v>
       </c>
@@ -18270,7 +18275,7 @@
       </c>
       <c r="I201" s="16"/>
     </row>
-    <row r="202" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:9" ht="30">
       <c r="A202" s="7" t="s">
         <v>393</v>
       </c>
@@ -18295,7 +18300,7 @@
       </c>
       <c r="I202" s="16"/>
     </row>
-    <row r="203" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:9" ht="30">
       <c r="A203" s="7" t="s">
         <v>395</v>
       </c>
@@ -18320,7 +18325,7 @@
       </c>
       <c r="I203" s="16"/>
     </row>
-    <row r="204" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:9" ht="60">
       <c r="A204" s="7" t="s">
         <v>397</v>
       </c>
@@ -18345,7 +18350,7 @@
       </c>
       <c r="I204" s="16"/>
     </row>
-    <row r="205" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:9" ht="75">
       <c r="A205" s="7" t="s">
         <v>400</v>
       </c>
@@ -18370,7 +18375,7 @@
       </c>
       <c r="I205" s="16"/>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="7" t="s">
         <v>402</v>
       </c>
@@ -18395,7 +18400,7 @@
       </c>
       <c r="I206" s="16"/>
     </row>
-    <row r="207" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:9" ht="30">
       <c r="A207" s="7" t="s">
         <v>404</v>
       </c>
@@ -18420,7 +18425,7 @@
       </c>
       <c r="I207" s="16"/>
     </row>
-    <row r="208" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:9" ht="45">
       <c r="A208" s="7" t="s">
         <v>406</v>
       </c>
@@ -18445,7 +18450,7 @@
       </c>
       <c r="I208" s="16"/>
     </row>
-    <row r="209" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:9" ht="30">
       <c r="A209" s="7" t="s">
         <v>409</v>
       </c>
@@ -18470,7 +18475,7 @@
       </c>
       <c r="I209" s="16"/>
     </row>
-    <row r="210" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:9" ht="30">
       <c r="A210" s="7" t="s">
         <v>412</v>
       </c>
@@ -18495,7 +18500,7 @@
       </c>
       <c r="I210" s="16"/>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="7" t="s">
         <v>414</v>
       </c>
@@ -18520,7 +18525,7 @@
       </c>
       <c r="I211" s="16"/>
     </row>
-    <row r="212" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:9" ht="30">
       <c r="A212" s="7" t="s">
         <v>416</v>
       </c>
@@ -18545,7 +18550,7 @@
       </c>
       <c r="I212" s="16"/>
     </row>
-    <row r="213" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:9" ht="30">
       <c r="A213" s="7" t="s">
         <v>419</v>
       </c>
@@ -18570,7 +18575,7 @@
       </c>
       <c r="I213" s="16"/>
     </row>
-    <row r="214" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:9" ht="30">
       <c r="A214" s="7" t="s">
         <v>421</v>
       </c>
@@ -18595,7 +18600,7 @@
       </c>
       <c r="I214" s="16"/>
     </row>
-    <row r="215" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:9" ht="30">
       <c r="A215" s="7" t="s">
         <v>423</v>
       </c>
@@ -18620,7 +18625,7 @@
       </c>
       <c r="I215" s="16"/>
     </row>
-    <row r="216" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:9" ht="135">
       <c r="A216" s="7" t="s">
         <v>426</v>
       </c>
@@ -18645,7 +18650,7 @@
       </c>
       <c r="I216" s="16"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="7" t="s">
         <v>429</v>
       </c>
@@ -18670,7 +18675,7 @@
       </c>
       <c r="I217" s="16"/>
     </row>
-    <row r="218" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:9" ht="30">
       <c r="A218" s="7" t="s">
         <v>431</v>
       </c>
@@ -18695,7 +18700,7 @@
       </c>
       <c r="I218" s="16"/>
     </row>
-    <row r="219" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:9" ht="165">
       <c r="A219" s="7" t="s">
         <v>428</v>
       </c>
@@ -18720,7 +18725,7 @@
       </c>
       <c r="I219" s="16"/>
     </row>
-    <row r="220" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:9" ht="30">
       <c r="A220" s="7" t="s">
         <v>434</v>
       </c>
@@ -18745,7 +18750,7 @@
       </c>
       <c r="I220" s="16"/>
     </row>
-    <row r="221" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:9" ht="30">
       <c r="A221" s="7" t="s">
         <v>436</v>
       </c>
@@ -18770,7 +18775,7 @@
       </c>
       <c r="I221" s="16"/>
     </row>
-    <row r="222" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:9" ht="30">
       <c r="A222" s="7" t="s">
         <v>438</v>
       </c>
@@ -18795,7 +18800,7 @@
       </c>
       <c r="I222" s="16"/>
     </row>
-    <row r="223" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:9" ht="30">
       <c r="A223" s="7" t="s">
         <v>440</v>
       </c>
@@ -18820,7 +18825,7 @@
       </c>
       <c r="I223" s="16"/>
     </row>
-    <row r="224" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:9" ht="60">
       <c r="A224" s="7" t="s">
         <v>442</v>
       </c>
@@ -18847,7 +18852,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:9" ht="30">
       <c r="A225" s="7" t="s">
         <v>444</v>
       </c>
@@ -18872,7 +18877,7 @@
       </c>
       <c r="I225" s="13"/>
     </row>
-    <row r="226" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:9" ht="30">
       <c r="A226" s="7" t="s">
         <v>446</v>
       </c>
@@ -18897,7 +18902,7 @@
       </c>
       <c r="I226" s="16"/>
     </row>
-    <row r="227" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:9" ht="30">
       <c r="A227" s="7" t="s">
         <v>449</v>
       </c>
@@ -18922,7 +18927,7 @@
       </c>
       <c r="I227" s="16"/>
     </row>
-    <row r="228" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:9" ht="30">
       <c r="A228" s="7" t="s">
         <v>452</v>
       </c>
@@ -18947,7 +18952,7 @@
       </c>
       <c r="I228" s="16"/>
     </row>
-    <row r="229" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:9" ht="120">
       <c r="A229" s="7" t="s">
         <v>454</v>
       </c>
@@ -18972,7 +18977,7 @@
       </c>
       <c r="I229" s="16"/>
     </row>
-    <row r="230" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:9" ht="30">
       <c r="A230" s="7" t="s">
         <v>456</v>
       </c>
@@ -18997,7 +19002,7 @@
       </c>
       <c r="I230" s="16"/>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="7" t="s">
         <v>458</v>
       </c>
@@ -19022,7 +19027,7 @@
       </c>
       <c r="I231" s="16"/>
     </row>
-    <row r="232" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="30">
       <c r="A232" s="7" t="s">
         <v>461</v>
       </c>
@@ -19047,7 +19052,7 @@
       </c>
       <c r="I232" s="16"/>
     </row>
-    <row r="233" spans="1:9" ht="229.5" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="255">
       <c r="A233" s="7" t="s">
         <v>463</v>
       </c>
@@ -19072,7 +19077,7 @@
       </c>
       <c r="I233" s="16"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="7" t="s">
         <v>465</v>
       </c>
@@ -19097,7 +19102,7 @@
       </c>
       <c r="I234" s="16"/>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="7" t="s">
         <v>467</v>
       </c>
@@ -19122,7 +19127,7 @@
       </c>
       <c r="I235" s="16"/>
     </row>
-    <row r="236" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="30">
       <c r="A236" s="7" t="s">
         <v>469</v>
       </c>
@@ -19147,7 +19152,7 @@
       </c>
       <c r="I236" s="16"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="7" t="s">
         <v>471</v>
       </c>
@@ -19172,7 +19177,7 @@
       </c>
       <c r="I237" s="16"/>
     </row>
-    <row r="238" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="30">
       <c r="A238" s="7" t="s">
         <v>473</v>
       </c>
@@ -19197,7 +19202,7 @@
       </c>
       <c r="I238" s="16"/>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="7" t="s">
         <v>475</v>
       </c>
@@ -19222,7 +19227,7 @@
       </c>
       <c r="I239" s="16"/>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="7" t="s">
         <v>477</v>
       </c>
@@ -19247,7 +19252,7 @@
       </c>
       <c r="I240" s="16"/>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="7" t="s">
         <v>479</v>
       </c>
@@ -19272,7 +19277,7 @@
       </c>
       <c r="I241" s="16"/>
     </row>
-    <row r="242" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" ht="30">
       <c r="A242" s="7" t="s">
         <v>481</v>
       </c>
@@ -19297,7 +19302,7 @@
       </c>
       <c r="I242" s="16"/>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="7" t="s">
         <v>483</v>
       </c>
@@ -19322,7 +19327,7 @@
       </c>
       <c r="I243" s="16"/>
     </row>
-    <row r="244" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="30">
       <c r="A244" s="7" t="s">
         <v>485</v>
       </c>
@@ -19347,7 +19352,7 @@
       </c>
       <c r="I244" s="16"/>
     </row>
-    <row r="245" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" ht="30">
       <c r="A245" s="7" t="s">
         <v>487</v>
       </c>
@@ -19372,7 +19377,7 @@
       </c>
       <c r="I245" s="16"/>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="7" t="s">
         <v>489</v>
       </c>
@@ -19397,7 +19402,7 @@
       </c>
       <c r="I246" s="16"/>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="7" t="s">
         <v>491</v>
       </c>
@@ -19422,7 +19427,7 @@
       </c>
       <c r="I247" s="16"/>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="7" t="s">
         <v>493</v>
       </c>
@@ -19447,7 +19452,7 @@
       </c>
       <c r="I248" s="16"/>
     </row>
-    <row r="249" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" ht="30">
       <c r="A249" s="7" t="s">
         <v>495</v>
       </c>
@@ -19472,7 +19477,7 @@
       </c>
       <c r="I249" s="16"/>
     </row>
-    <row r="250" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" ht="30">
       <c r="A250" s="7" t="s">
         <v>497</v>
       </c>
@@ -19497,7 +19502,7 @@
       </c>
       <c r="I250" s="16"/>
     </row>
-    <row r="251" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" ht="30">
       <c r="A251" s="7" t="s">
         <v>499</v>
       </c>
@@ -19522,7 +19527,7 @@
       </c>
       <c r="I251" s="16"/>
     </row>
-    <row r="252" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" ht="30">
       <c r="A252" s="7" t="s">
         <v>501</v>
       </c>
@@ -19547,7 +19552,7 @@
       </c>
       <c r="I252" s="16"/>
     </row>
-    <row r="253" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" ht="45">
       <c r="A253" s="7" t="s">
         <v>503</v>
       </c>
@@ -19572,7 +19577,7 @@
       </c>
       <c r="I253" s="13"/>
     </row>
-    <row r="254" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" ht="30">
       <c r="A254" s="7" t="s">
         <v>505</v>
       </c>
@@ -19597,7 +19602,7 @@
       </c>
       <c r="I254" s="13"/>
     </row>
-    <row r="255" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" ht="45">
       <c r="A255" s="7" t="s">
         <v>507</v>
       </c>
@@ -19622,7 +19627,7 @@
       </c>
       <c r="I255" s="16"/>
     </row>
-    <row r="256" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" ht="45">
       <c r="A256" s="7" t="s">
         <v>509</v>
       </c>
@@ -19649,7 +19654,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:9" ht="45">
       <c r="A257" s="7" t="s">
         <v>512</v>
       </c>
@@ -19674,7 +19679,7 @@
       </c>
       <c r="I257" s="16"/>
     </row>
-    <row r="258" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" ht="30">
       <c r="A258" s="7" t="s">
         <v>514</v>
       </c>
@@ -19699,7 +19704,7 @@
       </c>
       <c r="I258" s="16"/>
     </row>
-    <row r="259" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" ht="30">
       <c r="A259" s="7" t="s">
         <v>515</v>
       </c>
@@ -19724,7 +19729,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" ht="45">
       <c r="A260" s="7" t="s">
         <v>517</v>
       </c>
@@ -19749,7 +19754,7 @@
       </c>
       <c r="I260" s="16"/>
     </row>
-    <row r="261" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" ht="30">
       <c r="A261" s="7" t="s">
         <v>519</v>
       </c>
@@ -19774,7 +19779,7 @@
       </c>
       <c r="I261" s="16"/>
     </row>
-    <row r="262" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" ht="45">
       <c r="A262" s="7" t="s">
         <v>521</v>
       </c>
@@ -19799,7 +19804,7 @@
       </c>
       <c r="I262" s="16"/>
     </row>
-    <row r="263" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:9" ht="30">
       <c r="A263" s="7" t="s">
         <v>523</v>
       </c>
@@ -19824,7 +19829,7 @@
       </c>
       <c r="I263" s="16"/>
     </row>
-    <row r="264" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:9" ht="45">
       <c r="A264" s="7" t="s">
         <v>525</v>
       </c>
@@ -19849,7 +19854,7 @@
       </c>
       <c r="I264" s="16"/>
     </row>
-    <row r="265" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:9" ht="45">
       <c r="A265" s="7" t="s">
         <v>527</v>
       </c>
@@ -19874,7 +19879,7 @@
       </c>
       <c r="I265" s="16"/>
     </row>
-    <row r="266" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:9" ht="30">
       <c r="A266" s="7" t="s">
         <v>529</v>
       </c>
@@ -19899,7 +19904,7 @@
       </c>
       <c r="I266" s="16"/>
     </row>
-    <row r="267" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:9" ht="30">
       <c r="A267" s="7" t="s">
         <v>531</v>
       </c>
@@ -19924,7 +19929,7 @@
       </c>
       <c r="I267" s="16"/>
     </row>
-    <row r="268" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" ht="45">
       <c r="A268" s="7" t="s">
         <v>533</v>
       </c>
@@ -19949,7 +19954,7 @@
       </c>
       <c r="I268" s="16"/>
     </row>
-    <row r="269" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="30">
       <c r="A269" s="7" t="s">
         <v>535</v>
       </c>
@@ -19974,7 +19979,7 @@
       </c>
       <c r="I269" s="16"/>
     </row>
-    <row r="270" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="30">
       <c r="A270" s="7" t="s">
         <v>537</v>
       </c>
@@ -19999,7 +20004,7 @@
       </c>
       <c r="I270" s="16"/>
     </row>
-    <row r="271" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" ht="75">
       <c r="A271" s="7" t="s">
         <v>539</v>
       </c>
@@ -20024,7 +20029,7 @@
       </c>
       <c r="I271" s="16"/>
     </row>
-    <row r="272" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" ht="30">
       <c r="A272" s="7" t="s">
         <v>541</v>
       </c>
@@ -20049,7 +20054,7 @@
       </c>
       <c r="I272" s="16"/>
     </row>
-    <row r="273" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" ht="45">
       <c r="A273" s="7" t="s">
         <v>543</v>
       </c>
@@ -20074,7 +20079,7 @@
       </c>
       <c r="I273" s="16"/>
     </row>
-    <row r="274" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" ht="45">
       <c r="A274" s="7" t="s">
         <v>545</v>
       </c>
@@ -20099,7 +20104,7 @@
       </c>
       <c r="I274" s="16"/>
     </row>
-    <row r="275" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" ht="30">
       <c r="A275" s="7" t="s">
         <v>548</v>
       </c>
@@ -20124,7 +20129,7 @@
       </c>
       <c r="I275" s="16"/>
     </row>
-    <row r="276" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" ht="30">
       <c r="A276" s="7" t="s">
         <v>551</v>
       </c>
@@ -20149,7 +20154,7 @@
       </c>
       <c r="I276" s="16"/>
     </row>
-    <row r="277" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" ht="30">
       <c r="A277" s="7" t="s">
         <v>553</v>
       </c>
@@ -20174,7 +20179,7 @@
       </c>
       <c r="I277" s="16"/>
     </row>
-    <row r="278" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" ht="30">
       <c r="A278" s="7" t="s">
         <v>555</v>
       </c>
@@ -20199,7 +20204,7 @@
       </c>
       <c r="I278" s="16"/>
     </row>
-    <row r="279" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" ht="30">
       <c r="A279" s="7" t="s">
         <v>558</v>
       </c>
@@ -20224,7 +20229,7 @@
       </c>
       <c r="I279" s="16"/>
     </row>
-    <row r="280" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" ht="30">
       <c r="A280" s="7" t="s">
         <v>560</v>
       </c>
@@ -20249,7 +20254,7 @@
       </c>
       <c r="I280" s="16"/>
     </row>
-    <row r="281" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="30">
       <c r="A281" s="7" t="s">
         <v>562</v>
       </c>
@@ -20274,7 +20279,7 @@
       </c>
       <c r="I281" s="16"/>
     </row>
-    <row r="282" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" ht="60">
       <c r="A282" s="7" t="s">
         <v>565</v>
       </c>
@@ -20299,7 +20304,7 @@
       </c>
       <c r="I282" s="16"/>
     </row>
-    <row r="283" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" ht="30">
       <c r="A283" s="7" t="s">
         <v>568</v>
       </c>
@@ -20324,7 +20329,7 @@
       </c>
       <c r="I283" s="16"/>
     </row>
-    <row r="284" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" ht="150">
       <c r="A284" s="7" t="s">
         <v>567</v>
       </c>
@@ -20349,7 +20354,7 @@
       </c>
       <c r="I284" s="16"/>
     </row>
-    <row r="285" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:9" ht="60">
       <c r="A285" s="7" t="s">
         <v>955</v>
       </c>
@@ -20376,7 +20381,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:9" ht="60">
       <c r="A286" s="7" t="s">
         <v>573</v>
       </c>
@@ -20403,7 +20408,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:9" ht="30">
       <c r="A287" s="7" t="s">
         <v>576</v>
       </c>
@@ -20428,7 +20433,7 @@
       </c>
       <c r="I287" s="16"/>
     </row>
-    <row r="288" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:9" ht="45">
       <c r="A288" s="7" t="s">
         <v>578</v>
       </c>
@@ -20453,7 +20458,7 @@
       </c>
       <c r="I288" s="16"/>
     </row>
-    <row r="289" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:9" ht="75">
       <c r="A289" s="7" t="s">
         <v>580</v>
       </c>
@@ -20478,7 +20483,7 @@
       </c>
       <c r="I289" s="16"/>
     </row>
-    <row r="290" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:9" ht="30">
       <c r="A290" s="7" t="s">
         <v>582</v>
       </c>
@@ -20503,7 +20508,7 @@
       </c>
       <c r="I290" s="16"/>
     </row>
-    <row r="291" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:9" ht="45">
       <c r="A291" s="7" t="s">
         <v>584</v>
       </c>
@@ -20528,7 +20533,7 @@
       </c>
       <c r="I291" s="16"/>
     </row>
-    <row r="292" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="7" t="s">
         <v>586</v>
       </c>
@@ -20553,7 +20558,7 @@
       </c>
       <c r="I292" s="16"/>
     </row>
-    <row r="293" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:9" ht="60">
       <c r="A293" s="7" t="s">
         <v>589</v>
       </c>
@@ -20578,7 +20583,7 @@
       </c>
       <c r="I293" s="16"/>
     </row>
-    <row r="294" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:9" ht="45">
       <c r="A294" s="7" t="s">
         <v>592</v>
       </c>
@@ -20603,7 +20608,7 @@
       </c>
       <c r="I294" s="16"/>
     </row>
-    <row r="295" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:9" ht="30">
       <c r="A295" s="7" t="s">
         <v>594</v>
       </c>
@@ -20628,7 +20633,7 @@
       </c>
       <c r="I295" s="16"/>
     </row>
-    <row r="296" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:9" ht="45">
       <c r="A296" s="7" t="s">
         <v>596</v>
       </c>
@@ -20653,7 +20658,7 @@
       </c>
       <c r="I296" s="16"/>
     </row>
-    <row r="297" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:9" ht="30">
       <c r="A297" s="7" t="s">
         <v>599</v>
       </c>
@@ -20678,7 +20683,7 @@
       </c>
       <c r="I297" s="16"/>
     </row>
-    <row r="298" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:9" ht="45">
       <c r="A298" s="7" t="s">
         <v>601</v>
       </c>
@@ -20703,7 +20708,7 @@
       </c>
       <c r="I298" s="16"/>
     </row>
-    <row r="299" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:9" ht="30">
       <c r="A299" s="7" t="s">
         <v>603</v>
       </c>
@@ -20728,7 +20733,7 @@
       </c>
       <c r="I299" s="16"/>
     </row>
-    <row r="300" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:9" ht="120">
       <c r="A300" s="7" t="s">
         <v>606</v>
       </c>
@@ -20753,7 +20758,7 @@
       </c>
       <c r="I300" s="16"/>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="7" t="s">
         <v>609</v>
       </c>
@@ -20778,7 +20783,7 @@
       </c>
       <c r="I301" s="16"/>
     </row>
-    <row r="302" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:9" ht="45">
       <c r="A302" s="7" t="s">
         <v>611</v>
       </c>
@@ -20803,7 +20808,7 @@
       </c>
       <c r="I302" s="16"/>
     </row>
-    <row r="303" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:9" ht="45">
       <c r="A303" s="7" t="s">
         <v>613</v>
       </c>
@@ -20830,7 +20835,7 @@
       </c>
       <c r="I303" s="16"/>
     </row>
-    <row r="304" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:9" ht="45">
       <c r="A304" s="7" t="s">
         <v>616</v>
       </c>
@@ -20857,7 +20862,7 @@
       </c>
       <c r="I304" s="16"/>
     </row>
-    <row r="305" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:9" ht="60">
       <c r="A305" s="7" t="s">
         <v>618</v>
       </c>
@@ -20882,7 +20887,7 @@
       </c>
       <c r="I305" s="16"/>
     </row>
-    <row r="306" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:9" ht="45">
       <c r="A306" s="7" t="s">
         <v>619</v>
       </c>
@@ -20907,7 +20912,7 @@
       </c>
       <c r="I306" s="16"/>
     </row>
-    <row r="307" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:9" ht="165">
       <c r="A307" s="7" t="s">
         <v>608</v>
       </c>
@@ -20932,7 +20937,7 @@
       </c>
       <c r="I307" s="16"/>
     </row>
-    <row r="308" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" ht="75">
       <c r="A308" s="7" t="s">
         <v>623</v>
       </c>
@@ -20957,7 +20962,7 @@
       </c>
       <c r="I308" s="16"/>
     </row>
-    <row r="309" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="7" t="s">
         <v>625</v>
       </c>
@@ -20982,7 +20987,7 @@
       </c>
       <c r="I309" s="16"/>
     </row>
-    <row r="310" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" ht="45">
       <c r="A310" s="7" t="s">
         <v>628</v>
       </c>
@@ -21007,7 +21012,7 @@
       </c>
       <c r="I310" s="16"/>
     </row>
-    <row r="311" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:9" ht="165">
       <c r="A311" s="7" t="s">
         <v>631</v>
       </c>
@@ -21032,7 +21037,7 @@
       </c>
       <c r="I311" s="16"/>
     </row>
-    <row r="312" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="7" t="s">
         <v>632</v>
       </c>
@@ -21057,7 +21062,7 @@
       </c>
       <c r="I312" s="16"/>
     </row>
-    <row r="313" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:9" ht="45">
       <c r="A313" s="7" t="s">
         <v>634</v>
       </c>
@@ -21082,7 +21087,7 @@
       </c>
       <c r="I313" s="16"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="7" t="s">
         <v>636</v>
       </c>
@@ -21107,7 +21112,7 @@
       </c>
       <c r="I314" s="16"/>
     </row>
-    <row r="315" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="7" t="s">
         <v>638</v>
       </c>
@@ -21132,7 +21137,7 @@
       </c>
       <c r="I315" s="16"/>
     </row>
-    <row r="316" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" ht="45">
       <c r="A316" s="7" t="s">
         <v>639</v>
       </c>
@@ -21157,7 +21162,7 @@
       </c>
       <c r="I316" s="16"/>
     </row>
-    <row r="317" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:9" ht="45">
       <c r="A317" s="7" t="s">
         <v>640</v>
       </c>
@@ -21184,7 +21189,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:9" ht="75">
       <c r="A318" s="7" t="s">
         <v>643</v>
       </c>
@@ -21209,7 +21214,7 @@
       </c>
       <c r="I318" s="16"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="7" t="s">
         <v>645</v>
       </c>
@@ -21234,7 +21239,7 @@
       </c>
       <c r="I319" s="16"/>
     </row>
-    <row r="320" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:9" ht="30">
       <c r="A320" s="7" t="s">
         <v>647</v>
       </c>
@@ -21259,7 +21264,7 @@
       </c>
       <c r="I320" s="16"/>
     </row>
-    <row r="321" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:9" ht="45">
       <c r="A321" s="7" t="s">
         <v>649</v>
       </c>
@@ -21284,7 +21289,7 @@
       </c>
       <c r="I321" s="16"/>
     </row>
-    <row r="322" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="7" t="s">
         <v>651</v>
       </c>
@@ -21309,7 +21314,7 @@
       </c>
       <c r="I322" s="16"/>
     </row>
-    <row r="323" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:9" ht="60">
       <c r="A323" s="7" t="s">
         <v>653</v>
       </c>
@@ -21336,7 +21341,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:9" ht="45">
       <c r="A324" s="7" t="s">
         <v>655</v>
       </c>
@@ -21361,7 +21366,7 @@
       </c>
       <c r="I324" s="13"/>
     </row>
-    <row r="325" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="7" t="s">
         <v>656</v>
       </c>
@@ -21386,7 +21391,7 @@
       </c>
       <c r="I325" s="16"/>
     </row>
-    <row r="326" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:9" ht="30">
       <c r="A326" s="7" t="s">
         <v>659</v>
       </c>
@@ -21411,7 +21416,7 @@
       </c>
       <c r="I326" s="16"/>
     </row>
-    <row r="327" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="7" t="s">
         <v>662</v>
       </c>
@@ -21436,7 +21441,7 @@
       </c>
       <c r="I327" s="16"/>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" ht="15">
       <c r="A328" s="7" t="s">
         <v>664</v>
       </c>
@@ -21461,7 +21466,7 @@
       </c>
       <c r="I328" s="16"/>
     </row>
-    <row r="329" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="7" t="s">
         <v>666</v>
       </c>
@@ -21486,7 +21491,7 @@
       </c>
       <c r="I329" s="16"/>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:9" ht="15">
       <c r="A330" s="7" t="s">
         <v>669</v>
       </c>
@@ -21511,7 +21516,7 @@
       </c>
       <c r="I330" s="16"/>
     </row>
-    <row r="331" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="7" t="s">
         <v>671</v>
       </c>
@@ -21536,7 +21541,7 @@
       </c>
       <c r="I331" s="16"/>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" ht="15">
       <c r="A332" s="7" t="s">
         <v>673</v>
       </c>
@@ -21561,7 +21566,7 @@
       </c>
       <c r="I332" s="16"/>
     </row>
-    <row r="333" spans="1:9" ht="243" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" ht="270">
       <c r="A333" s="7" t="s">
         <v>676</v>
       </c>
@@ -21586,7 +21591,7 @@
       </c>
       <c r="I333" s="16"/>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" ht="15">
       <c r="A334" s="7" t="s">
         <v>679</v>
       </c>
@@ -21611,7 +21616,7 @@
       </c>
       <c r="I334" s="16"/>
     </row>
-    <row r="335" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" ht="60">
       <c r="A335" s="7" t="s">
         <v>681</v>
       </c>
@@ -21636,7 +21641,7 @@
       </c>
       <c r="I335" s="16"/>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" ht="15">
       <c r="A336" s="7" t="s">
         <v>683</v>
       </c>
@@ -21661,7 +21666,7 @@
       </c>
       <c r="I336" s="16"/>
     </row>
-    <row r="337" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="30">
       <c r="A337" s="7" t="s">
         <v>684</v>
       </c>
@@ -21686,7 +21691,7 @@
       </c>
       <c r="I337" s="16"/>
     </row>
-    <row r="338" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="7" t="s">
         <v>686</v>
       </c>
@@ -21711,7 +21716,7 @@
       </c>
       <c r="I338" s="16"/>
     </row>
-    <row r="339" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" ht="30">
       <c r="A339" s="7" t="s">
         <v>688</v>
       </c>
@@ -21736,7 +21741,7 @@
       </c>
       <c r="I339" s="16"/>
     </row>
-    <row r="340" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="7" t="s">
         <v>690</v>
       </c>
@@ -21761,7 +21766,7 @@
       </c>
       <c r="I340" s="16"/>
     </row>
-    <row r="341" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:9" ht="60">
       <c r="A341" s="7" t="s">
         <v>691</v>
       </c>
@@ -21786,7 +21791,7 @@
       </c>
       <c r="I341" s="16"/>
     </row>
-    <row r="342" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="7" t="s">
         <v>693</v>
       </c>
@@ -21810,10 +21815,10 @@
         <v>18</v>
       </c>
       <c r="I342" s="16" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="15">
       <c r="A343" s="7" t="s">
         <v>695</v>
       </c>
@@ -21838,7 +21843,7 @@
       </c>
       <c r="I343" s="16"/>
     </row>
-    <row r="344" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:9" ht="30">
       <c r="A344" s="7" t="s">
         <v>697</v>
       </c>
@@ -21863,7 +21868,7 @@
       </c>
       <c r="I344" s="13"/>
     </row>
-    <row r="345" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:9" ht="45">
       <c r="A345" s="7" t="s">
         <v>698</v>
       </c>
@@ -21888,7 +21893,7 @@
       </c>
       <c r="I345" s="16"/>
     </row>
-    <row r="346" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:9" ht="45">
       <c r="A346" s="7" t="s">
         <v>700</v>
       </c>
@@ -21913,7 +21918,7 @@
       </c>
       <c r="I346" s="13"/>
     </row>
-    <row r="347" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:9" ht="30">
       <c r="A347" s="7" t="s">
         <v>702</v>
       </c>
@@ -21938,7 +21943,7 @@
       </c>
       <c r="I347" s="16"/>
     </row>
-    <row r="348" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="7" t="s">
         <v>704</v>
       </c>
@@ -21963,7 +21968,7 @@
       </c>
       <c r="I348" s="16"/>
     </row>
-    <row r="349" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:9" ht="45">
       <c r="A349" s="7" t="s">
         <v>705</v>
       </c>
@@ -21988,7 +21993,7 @@
       </c>
       <c r="I349" s="16"/>
     </row>
-    <row r="350" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:9" ht="30">
       <c r="A350" s="7" t="s">
         <v>707</v>
       </c>
@@ -22013,7 +22018,7 @@
       </c>
       <c r="I350" s="16"/>
     </row>
-    <row r="351" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:9" ht="135">
       <c r="A351" s="7" t="s">
         <v>678</v>
       </c>
@@ -22038,7 +22043,7 @@
       </c>
       <c r="I351" s="16"/>
     </row>
-    <row r="352" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:9" ht="30">
       <c r="A352" s="7" t="s">
         <v>711</v>
       </c>
@@ -22063,7 +22068,7 @@
       </c>
       <c r="I352" s="16"/>
     </row>
-    <row r="353" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:9" ht="30">
       <c r="A353" s="7" t="s">
         <v>712</v>
       </c>
@@ -22088,7 +22093,7 @@
       </c>
       <c r="I353" s="16"/>
     </row>
-    <row r="354" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:9" ht="45">
       <c r="A354" s="7" t="s">
         <v>714</v>
       </c>
@@ -22113,7 +22118,7 @@
       </c>
       <c r="I354" s="13"/>
     </row>
-    <row r="355" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:9" ht="30">
       <c r="A355" s="7" t="s">
         <v>716</v>
       </c>
@@ -22138,7 +22143,7 @@
       </c>
       <c r="I355" s="16"/>
     </row>
-    <row r="356" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:9" ht="45">
       <c r="A356" s="7" t="s">
         <v>718</v>
       </c>
@@ -22163,7 +22168,7 @@
       </c>
       <c r="I356" s="16"/>
     </row>
-    <row r="357" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:9" ht="45">
       <c r="A357" s="21" t="s">
         <v>720</v>
       </c>
@@ -22188,7 +22193,7 @@
       </c>
       <c r="I357" s="23"/>
     </row>
-    <row r="358" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:9" ht="45">
       <c r="A358" s="7" t="s">
         <v>722</v>
       </c>
@@ -22213,7 +22218,7 @@
       </c>
       <c r="I358" s="16"/>
     </row>
-    <row r="359" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:9" ht="30">
       <c r="A359" s="7" t="s">
         <v>724</v>
       </c>
@@ -22238,7 +22243,7 @@
       </c>
       <c r="I359" s="16"/>
     </row>
-    <row r="360" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:9" ht="45">
       <c r="A360" s="7" t="s">
         <v>726</v>
       </c>
@@ -22265,7 +22270,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:9" ht="75">
       <c r="A361" s="7" t="s">
         <v>728</v>
       </c>
@@ -22290,7 +22295,7 @@
       </c>
       <c r="I361" s="16"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:9" ht="15">
       <c r="A362" s="7" t="s">
         <v>730</v>
       </c>
@@ -22315,7 +22320,7 @@
       </c>
       <c r="I362" s="16"/>
     </row>
-    <row r="363" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:9" ht="45">
       <c r="A363" s="7" t="s">
         <v>732</v>
       </c>
@@ -22340,7 +22345,7 @@
       </c>
       <c r="I363" s="16"/>
     </row>
-    <row r="364" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:9" ht="45">
       <c r="A364" s="7" t="s">
         <v>734</v>
       </c>
@@ -22365,7 +22370,7 @@
       </c>
       <c r="I364" s="16"/>
     </row>
-    <row r="365" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:9" ht="30">
       <c r="A365" s="7" t="s">
         <v>736</v>
       </c>
@@ -22390,7 +22395,7 @@
       </c>
       <c r="I365" s="16"/>
     </row>
-    <row r="366" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:9" ht="30">
       <c r="A366" s="7" t="s">
         <v>738</v>
       </c>
@@ -22415,7 +22420,7 @@
       </c>
       <c r="I366" s="16"/>
     </row>
-    <row r="367" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:9" ht="30">
       <c r="A367" s="7" t="s">
         <v>740</v>
       </c>
@@ -22440,7 +22445,7 @@
       </c>
       <c r="I367" s="16"/>
     </row>
-    <row r="368" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:9" ht="30">
       <c r="A368" s="7" t="s">
         <v>743</v>
       </c>
@@ -22465,7 +22470,7 @@
       </c>
       <c r="I368" s="16"/>
     </row>
-    <row r="369" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:9" ht="30">
       <c r="A369" s="7" t="s">
         <v>745</v>
       </c>
@@ -22490,7 +22495,7 @@
       </c>
       <c r="I369" s="16"/>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:9" ht="15">
       <c r="A370" s="7" t="s">
         <v>747</v>
       </c>
@@ -22515,7 +22520,7 @@
       </c>
       <c r="I370" s="16"/>
     </row>
-    <row r="371" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:9" ht="30">
       <c r="A371" s="7" t="s">
         <v>749</v>
       </c>
@@ -22540,7 +22545,7 @@
       </c>
       <c r="I371" s="16"/>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:9" ht="15">
       <c r="A372" s="7" t="s">
         <v>751</v>
       </c>
@@ -22565,7 +22570,7 @@
       </c>
       <c r="I372" s="16"/>
     </row>
-    <row r="373" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:9" ht="30">
       <c r="A373" s="7" t="s">
         <v>753</v>
       </c>
@@ -22590,7 +22595,7 @@
       </c>
       <c r="I373" s="16"/>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:9" ht="15">
       <c r="A374" s="7" t="s">
         <v>755</v>
       </c>
@@ -22615,7 +22620,7 @@
       </c>
       <c r="I374" s="16"/>
     </row>
-    <row r="375" spans="1:9" ht="324" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:9" ht="356">
       <c r="A375" s="7" t="s">
         <v>758</v>
       </c>
@@ -22640,7 +22645,7 @@
       </c>
       <c r="I375" s="16"/>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:9" ht="15">
       <c r="A376" s="7" t="s">
         <v>761</v>
       </c>
@@ -22665,7 +22670,7 @@
       </c>
       <c r="I376" s="16"/>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:9" ht="15">
       <c r="A377" s="7" t="s">
         <v>763</v>
       </c>
@@ -22690,7 +22695,7 @@
       </c>
       <c r="I377" s="16"/>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:9" ht="15">
       <c r="A378" s="7" t="s">
         <v>765</v>
       </c>
@@ -22715,7 +22720,7 @@
       </c>
       <c r="I378" s="16"/>
     </row>
-    <row r="379" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:9" ht="30">
       <c r="A379" s="7" t="s">
         <v>767</v>
       </c>
@@ -22740,7 +22745,7 @@
       </c>
       <c r="I379" s="16"/>
     </row>
-    <row r="380" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:9" ht="30">
       <c r="A380" s="7" t="s">
         <v>769</v>
       </c>
@@ -22765,7 +22770,7 @@
       </c>
       <c r="I380" s="16"/>
     </row>
-    <row r="381" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:9" ht="45">
       <c r="A381" s="7" t="s">
         <v>771</v>
       </c>
@@ -22790,7 +22795,7 @@
       </c>
       <c r="I381" s="16"/>
     </row>
-    <row r="382" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:9" ht="30">
       <c r="A382" s="7" t="s">
         <v>773</v>
       </c>
@@ -22815,7 +22820,7 @@
       </c>
       <c r="I382" s="16"/>
     </row>
-    <row r="383" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:9" ht="30">
       <c r="A383" s="7" t="s">
         <v>775</v>
       </c>
@@ -22840,7 +22845,7 @@
       </c>
       <c r="I383" s="16"/>
     </row>
-    <row r="384" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:9" ht="30">
       <c r="A384" s="7" t="s">
         <v>777</v>
       </c>
@@ -22865,7 +22870,7 @@
       </c>
       <c r="I384" s="16"/>
     </row>
-    <row r="385" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:9" ht="30">
       <c r="A385" s="7" t="s">
         <v>779</v>
       </c>
@@ -22890,7 +22895,7 @@
       </c>
       <c r="I385" s="16"/>
     </row>
-    <row r="386" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:9" ht="30">
       <c r="A386" s="7" t="s">
         <v>781</v>
       </c>
@@ -22915,7 +22920,7 @@
       </c>
       <c r="I386" s="16"/>
     </row>
-    <row r="387" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:9" ht="30">
       <c r="A387" s="7" t="s">
         <v>783</v>
       </c>
@@ -22940,7 +22945,7 @@
       </c>
       <c r="I387" s="16"/>
     </row>
-    <row r="388" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:9" ht="30">
       <c r="A388" s="7" t="s">
         <v>785</v>
       </c>
@@ -22965,7 +22970,7 @@
       </c>
       <c r="I388" s="16"/>
     </row>
-    <row r="389" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:9" ht="30">
       <c r="A389" s="7" t="s">
         <v>787</v>
       </c>
@@ -22990,7 +22995,7 @@
       </c>
       <c r="I389" s="13"/>
     </row>
-    <row r="390" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:9" ht="30">
       <c r="A390" s="7" t="s">
         <v>789</v>
       </c>
@@ -23015,7 +23020,7 @@
       </c>
       <c r="I390" s="13"/>
     </row>
-    <row r="391" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:9" ht="45">
       <c r="A391" s="7" t="s">
         <v>791</v>
       </c>
@@ -23040,7 +23045,7 @@
       </c>
       <c r="I391" s="16"/>
     </row>
-    <row r="392" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:9" ht="30">
       <c r="A392" s="7" t="s">
         <v>793</v>
       </c>
@@ -23065,7 +23070,7 @@
       </c>
       <c r="I392" s="16"/>
     </row>
-    <row r="393" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:9" ht="30">
       <c r="A393" s="7" t="s">
         <v>795</v>
       </c>
@@ -23090,7 +23095,7 @@
       </c>
       <c r="I393" s="16"/>
     </row>
-    <row r="394" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:9" ht="30">
       <c r="A394" s="7" t="s">
         <v>797</v>
       </c>
@@ -23115,7 +23120,7 @@
       </c>
       <c r="I394" s="16"/>
     </row>
-    <row r="395" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:9" ht="30">
       <c r="A395" s="7" t="s">
         <v>799</v>
       </c>
@@ -23140,7 +23145,7 @@
       </c>
       <c r="I395" s="16"/>
     </row>
-    <row r="396" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:9" ht="30">
       <c r="A396" s="7" t="s">
         <v>801</v>
       </c>
@@ -23165,7 +23170,7 @@
       </c>
       <c r="I396" s="16"/>
     </row>
-    <row r="397" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:9" ht="30">
       <c r="A397" s="7" t="s">
         <v>803</v>
       </c>
@@ -23190,7 +23195,7 @@
       </c>
       <c r="I397" s="13"/>
     </row>
-    <row r="398" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:9" ht="60">
       <c r="A398" s="7" t="s">
         <v>804</v>
       </c>
@@ -23214,10 +23219,10 @@
         <v>18</v>
       </c>
       <c r="I398" s="13" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" ht="60">
       <c r="A399" s="7" t="s">
         <v>805</v>
       </c>
@@ -23241,10 +23246,10 @@
         <v>18</v>
       </c>
       <c r="I399" s="13" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="30">
       <c r="A400" s="7" t="s">
         <v>806</v>
       </c>
@@ -23269,7 +23274,7 @@
       </c>
       <c r="I400" s="16"/>
     </row>
-    <row r="401" spans="1:9" ht="243" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:9" ht="270">
       <c r="A401" s="7" t="s">
         <v>760</v>
       </c>
@@ -23294,7 +23299,7 @@
       </c>
       <c r="I401" s="16"/>
     </row>
-    <row r="402" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:9" ht="30">
       <c r="A402" s="7" t="s">
         <v>810</v>
       </c>
@@ -23319,7 +23324,7 @@
       </c>
       <c r="I402" s="16"/>
     </row>
-    <row r="403" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:9" ht="45">
       <c r="A403" s="7" t="s">
         <v>812</v>
       </c>
@@ -23346,7 +23351,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:9" ht="75">
       <c r="A404" s="7" t="s">
         <v>814</v>
       </c>
@@ -23371,7 +23376,7 @@
       </c>
       <c r="I404" s="16"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:9" ht="15">
       <c r="A405" s="7" t="s">
         <v>816</v>
       </c>
@@ -23396,7 +23401,7 @@
       </c>
       <c r="I405" s="16"/>
     </row>
-    <row r="406" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:9" ht="45">
       <c r="A406" s="7" t="s">
         <v>818</v>
       </c>
@@ -23421,7 +23426,7 @@
       </c>
       <c r="I406" s="16"/>
     </row>
-    <row r="407" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:9" ht="45">
       <c r="A407" s="7" t="s">
         <v>820</v>
       </c>
@@ -23446,7 +23451,7 @@
       </c>
       <c r="I407" s="16"/>
     </row>
-    <row r="408" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:9" ht="30">
       <c r="A408" s="7" t="s">
         <v>822</v>
       </c>
@@ -23471,7 +23476,7 @@
       </c>
       <c r="I408" s="16"/>
     </row>
-    <row r="409" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:9" ht="30">
       <c r="A409" s="7" t="s">
         <v>825</v>
       </c>
@@ -23496,7 +23501,7 @@
       </c>
       <c r="I409" s="16"/>
     </row>
-    <row r="410" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="7" t="s">
         <v>827</v>
       </c>
@@ -23521,7 +23526,7 @@
       </c>
       <c r="I410" s="16"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:9" ht="15">
       <c r="A411" s="7" t="s">
         <v>829</v>
       </c>
@@ -23546,7 +23551,7 @@
       </c>
       <c r="I411" s="16"/>
     </row>
-    <row r="412" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:9" ht="30">
       <c r="A412" s="7" t="s">
         <v>831</v>
       </c>
@@ -23571,7 +23576,7 @@
       </c>
       <c r="I412" s="16"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:9" ht="15">
       <c r="A413" s="7" t="s">
         <v>833</v>
       </c>
@@ -23596,7 +23601,7 @@
       </c>
       <c r="I413" s="16"/>
     </row>
-    <row r="414" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:9" ht="30">
       <c r="A414" s="7" t="s">
         <v>982</v>
       </c>
@@ -23621,7 +23626,7 @@
       </c>
       <c r="I414" s="16"/>
     </row>
-    <row r="415" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:9" ht="30">
       <c r="A415" s="7" t="s">
         <v>836</v>
       </c>
@@ -23646,7 +23651,7 @@
       </c>
       <c r="I415" s="16"/>
     </row>
-    <row r="416" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:9" ht="105">
       <c r="A416" s="7" t="s">
         <v>839</v>
       </c>
@@ -23671,7 +23676,7 @@
       </c>
       <c r="I416" s="16"/>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:9" ht="15">
       <c r="A417" s="7" t="s">
         <v>842</v>
       </c>
@@ -23696,7 +23701,7 @@
       </c>
       <c r="I417" s="16"/>
     </row>
-    <row r="418" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:9" ht="30">
       <c r="A418" s="7" t="s">
         <v>983</v>
       </c>
@@ -23721,7 +23726,7 @@
       </c>
       <c r="I418" s="16"/>
     </row>
-    <row r="419" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:9" ht="60">
       <c r="A419" s="7" t="s">
         <v>841</v>
       </c>
@@ -23746,7 +23751,7 @@
       </c>
       <c r="I419" s="16"/>
     </row>
-    <row r="420" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:9" ht="45">
       <c r="A420" s="7" t="s">
         <v>1064</v>
       </c>
@@ -23770,10 +23775,10 @@
         <v>18</v>
       </c>
       <c r="I420" s="54" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" ht="30">
       <c r="A421" s="7" t="s">
         <v>1065</v>
       </c>
@@ -23798,7 +23803,7 @@
       </c>
       <c r="I421" s="54"/>
     </row>
-    <row r="422" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:9" ht="90">
       <c r="A422" s="7" t="s">
         <v>1066</v>
       </c>
@@ -23823,7 +23828,7 @@
       </c>
       <c r="I422" s="54"/>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:9" ht="15">
       <c r="A423" s="7" t="s">
         <v>1067</v>
       </c>
@@ -23848,7 +23853,7 @@
       </c>
       <c r="I423" s="54"/>
     </row>
-    <row r="424" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:9" ht="30">
       <c r="A424" s="7" t="s">
         <v>1068</v>
       </c>
@@ -23873,7 +23878,7 @@
       </c>
       <c r="I424" s="54"/>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:9" ht="15">
       <c r="A425" s="7" t="s">
         <v>1069</v>
       </c>
@@ -23898,7 +23903,7 @@
       </c>
       <c r="I425" s="54"/>
     </row>
-    <row r="426" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:9" ht="45">
       <c r="A426" s="7" t="s">
         <v>1070</v>
       </c>
@@ -23923,7 +23928,7 @@
       </c>
       <c r="I426" s="54"/>
     </row>
-    <row r="427" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:9" ht="45">
       <c r="A427" s="7" t="s">
         <v>1071</v>
       </c>
@@ -23948,7 +23953,7 @@
       </c>
       <c r="I427" s="54"/>
     </row>
-    <row r="428" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:9" ht="30">
       <c r="A428" s="7" t="s">
         <v>1072</v>
       </c>
@@ -23973,7 +23978,7 @@
       </c>
       <c r="I428" s="54"/>
     </row>
-    <row r="429" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:9" ht="45">
       <c r="A429" s="7" t="s">
         <v>1073</v>
       </c>
@@ -23998,7 +24003,7 @@
       </c>
       <c r="I429" s="54"/>
     </row>
-    <row r="430" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:9" ht="30">
       <c r="A430" s="7" t="s">
         <v>1074</v>
       </c>
@@ -24023,7 +24028,7 @@
       </c>
       <c r="I430" s="54"/>
     </row>
-    <row r="431" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:9" ht="30">
       <c r="A431" s="7" t="s">
         <v>1075</v>
       </c>
@@ -24048,7 +24053,7 @@
       </c>
       <c r="I431" s="54"/>
     </row>
-    <row r="432" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:9" ht="30">
       <c r="A432" s="7" t="s">
         <v>1076</v>
       </c>
@@ -24073,7 +24078,7 @@
       </c>
       <c r="I432" s="54"/>
     </row>
-    <row r="433" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:9" ht="135">
       <c r="A433" s="7" t="s">
         <v>1077</v>
       </c>
@@ -24098,7 +24103,7 @@
       </c>
       <c r="I433" s="54"/>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:9" ht="15">
       <c r="A434" s="7" t="s">
         <v>1078</v>
       </c>
@@ -24123,7 +24128,7 @@
       </c>
       <c r="I434" s="54"/>
     </row>
-    <row r="435" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:9" ht="30">
       <c r="A435" s="7" t="s">
         <v>1079</v>
       </c>
@@ -24148,7 +24153,7 @@
       </c>
       <c r="I435" s="54"/>
     </row>
-    <row r="436" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:9" ht="30">
       <c r="A436" s="7" t="s">
         <v>1080</v>
       </c>
@@ -24173,7 +24178,7 @@
       </c>
       <c r="I436" s="54"/>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:9" ht="15">
       <c r="A437" s="7" t="s">
         <v>1081</v>
       </c>
@@ -24198,7 +24203,7 @@
       </c>
       <c r="I437" s="54"/>
     </row>
-    <row r="438" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="7" t="s">
         <v>1082</v>
       </c>
@@ -24223,7 +24228,7 @@
       </c>
       <c r="I438" s="54"/>
     </row>
-    <row r="439" spans="1:9" ht="135" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:9" ht="150">
       <c r="A439" s="7" t="s">
         <v>1083</v>
       </c>
@@ -24248,7 +24253,7 @@
       </c>
       <c r="I439" s="54"/>
     </row>
-    <row r="440" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:9" ht="30">
       <c r="A440" s="7" t="s">
         <v>1084</v>
       </c>
@@ -24273,7 +24278,7 @@
       </c>
       <c r="I440" s="54"/>
     </row>
-    <row r="441" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:9" ht="30">
       <c r="A441" s="7" t="s">
         <v>1085</v>
       </c>
@@ -24298,7 +24303,7 @@
       </c>
       <c r="I441" s="54"/>
     </row>
-    <row r="442" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:9" ht="30">
       <c r="A442" s="7" t="s">
         <v>1086</v>
       </c>
@@ -24323,7 +24328,7 @@
       </c>
       <c r="I442" s="54"/>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:9" ht="15">
       <c r="A443" s="7" t="s">
         <v>1087</v>
       </c>
@@ -24348,7 +24353,7 @@
       </c>
       <c r="I443" s="54"/>
     </row>
-    <row r="444" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="7" t="s">
         <v>1088</v>
       </c>
@@ -24373,7 +24378,7 @@
       </c>
       <c r="I444" s="54"/>
     </row>
-    <row r="445" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:9" ht="120">
       <c r="A445" s="7" t="s">
         <v>1089</v>
       </c>
@@ -24398,7 +24403,7 @@
       </c>
       <c r="I445" s="54"/>
     </row>
-    <row r="446" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:9" ht="30">
       <c r="A446" s="7" t="s">
         <v>1090</v>
       </c>
@@ -24419,19 +24424,19 @@
         <v>16</v>
       </c>
       <c r="H446" s="17" t="s">
+        <v>1137</v>
+      </c>
+      <c r="I446" s="54"/>
+    </row>
+    <row r="447" spans="1:9" ht="30">
+      <c r="A447" s="7" t="s">
         <v>1139</v>
-      </c>
-      <c r="I446" s="54"/>
-    </row>
-    <row r="447" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A447" s="7" t="s">
-        <v>1141</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>1108</v>
       </c>
       <c r="C447" s="13" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D447" s="53"/>
       <c r="E447" s="7" t="s">
@@ -24444,19 +24449,19 @@
         <v>16</v>
       </c>
       <c r="H447" s="17" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I447" s="54"/>
+    </row>
+    <row r="448" spans="1:9" ht="30">
+      <c r="A448" s="7" t="s">
         <v>1140</v>
-      </c>
-      <c r="I447" s="54"/>
-    </row>
-    <row r="448" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A448" s="7" t="s">
-        <v>1142</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>1108</v>
       </c>
       <c r="C448" s="13" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D448" s="53"/>
       <c r="E448" s="7" t="s">
@@ -24469,11 +24474,11 @@
         <v>16</v>
       </c>
       <c r="H448" s="17" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I448" s="54"/>
     </row>
-    <row r="449" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:9" ht="60">
       <c r="A449" s="10" t="s">
         <v>847</v>
       </c>
@@ -24498,7 +24503,7 @@
       </c>
       <c r="I449" s="51"/>
     </row>
-    <row r="450" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:9" ht="30">
       <c r="A450" s="10" t="s">
         <v>849</v>
       </c>
@@ -24523,7 +24528,7 @@
       </c>
       <c r="I450" s="51"/>
     </row>
-    <row r="451" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:9" ht="45">
       <c r="A451" s="7" t="s">
         <v>851</v>
       </c>
@@ -24550,7 +24555,7 @@
       </c>
       <c r="I451" s="51"/>
     </row>
-    <row r="452" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:9" ht="45">
       <c r="A452" s="7" t="s">
         <v>852</v>
       </c>
@@ -24579,7 +24584,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:9" ht="45">
       <c r="A453" s="7" t="s">
         <v>854</v>
       </c>
@@ -24606,7 +24611,7 @@
       </c>
       <c r="I453" s="51"/>
     </row>
-    <row r="454" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:9" ht="45">
       <c r="A454" s="7" t="s">
         <v>984</v>
       </c>
@@ -24635,7 +24640,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:9" ht="60">
       <c r="A455" s="7" t="s">
         <v>855</v>
       </c>
@@ -24664,7 +24669,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" ht="61" thickBot="1">
       <c r="A456" s="7" t="s">
         <v>856</v>
       </c>
@@ -24693,9 +24698,9 @@
         <v>932</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" ht="46" thickBot="1">
       <c r="A457" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>848</v>
@@ -24722,7 +24727,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" ht="46" thickBot="1">
       <c r="A458" s="7" t="s">
         <v>857</v>
       </c>
@@ -24747,9 +24752,9 @@
       </c>
       <c r="I458" s="16"/>
     </row>
-    <row r="459" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:9" ht="75">
       <c r="A459" s="7" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B459" s="14" t="s">
         <v>848</v>
@@ -24776,7 +24781,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:9" ht="60">
       <c r="A460" s="7" t="s">
         <v>858</v>
       </c>
@@ -24803,7 +24808,7 @@
       </c>
       <c r="I460" s="51"/>
     </row>
-    <row r="461" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:9" ht="45">
       <c r="A461" s="7" t="s">
         <v>859</v>
       </c>
@@ -24832,7 +24837,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:9" ht="45">
       <c r="A462" s="7" t="s">
         <v>861</v>
       </c>
@@ -24859,7 +24864,7 @@
       </c>
       <c r="I462" s="51"/>
     </row>
-    <row r="463" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:9" ht="45">
       <c r="A463" s="7" t="s">
         <v>862</v>
       </c>
@@ -24888,7 +24893,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" ht="76" thickBot="1">
       <c r="A464" s="7" t="s">
         <v>864</v>
       </c>
@@ -24896,7 +24901,7 @@
         <v>848</v>
       </c>
       <c r="C464" s="13" t="s">
-        <v>1115</v>
+        <v>1146</v>
       </c>
       <c r="D464" s="53" t="s">
         <v>950</v>
@@ -24917,7 +24922,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:9" ht="75">
       <c r="A465" s="7" t="s">
         <v>980</v>
       </c>
@@ -24925,7 +24930,7 @@
         <v>848</v>
       </c>
       <c r="C465" s="13" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D465" s="53" t="s">
         <v>950</v>
@@ -24946,7 +24951,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:9" ht="45">
       <c r="A466" s="7" t="s">
         <v>978</v>
       </c>
@@ -24973,7 +24978,7 @@
       </c>
       <c r="I466" s="51"/>
     </row>
-    <row r="467" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:9" ht="45">
       <c r="A467" s="7" t="s">
         <v>865</v>
       </c>
@@ -25000,7 +25005,7 @@
       </c>
       <c r="I467" s="51"/>
     </row>
-    <row r="468" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:9" ht="45">
       <c r="A468" s="7" t="s">
         <v>988</v>
       </c>
@@ -25029,7 +25034,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:9" ht="45">
       <c r="A469" s="7" t="s">
         <v>866</v>
       </c>
@@ -25056,7 +25061,7 @@
       </c>
       <c r="I469" s="13"/>
     </row>
-    <row r="470" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" ht="61" thickBot="1">
       <c r="A470" s="7" t="s">
         <v>867</v>
       </c>
@@ -25085,7 +25090,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" ht="31" thickBot="1">
       <c r="A471" s="7" t="s">
         <v>868</v>
       </c>
@@ -25110,7 +25115,7 @@
       </c>
       <c r="I471" s="16"/>
     </row>
-    <row r="472" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" ht="46" thickBot="1">
       <c r="A472" s="7" t="s">
         <v>870</v>
       </c>
@@ -25139,7 +25144,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" ht="46" thickBot="1">
       <c r="A473" s="7" t="s">
         <v>871</v>
       </c>
@@ -25166,7 +25171,7 @@
       </c>
       <c r="I473" s="16"/>
     </row>
-    <row r="474" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" ht="46" thickBot="1">
       <c r="A474" s="7" t="s">
         <v>873</v>
       </c>
@@ -25193,7 +25198,7 @@
       </c>
       <c r="I474" s="16"/>
     </row>
-    <row r="475" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" ht="61" thickBot="1">
       <c r="A475" s="7" t="s">
         <v>875</v>
       </c>
@@ -25220,7 +25225,7 @@
       </c>
       <c r="I475" s="16"/>
     </row>
-    <row r="476" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" ht="46" thickBot="1">
       <c r="A476" s="7" t="s">
         <v>877</v>
       </c>
@@ -25245,7 +25250,7 @@
       </c>
       <c r="I476" s="16"/>
     </row>
-    <row r="477" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:9" ht="60">
       <c r="A477" s="7" t="s">
         <v>879</v>
       </c>
@@ -25272,7 +25277,7 @@
       </c>
       <c r="I477" s="51"/>
     </row>
-    <row r="478" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:9" ht="45">
       <c r="A478" s="7" t="s">
         <v>880</v>
       </c>
@@ -25301,7 +25306,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:9" ht="45">
       <c r="A479" s="7" t="s">
         <v>882</v>
       </c>
@@ -25328,7 +25333,7 @@
       </c>
       <c r="I479" s="51"/>
     </row>
-    <row r="480" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:9" ht="45">
       <c r="A480" s="7" t="s">
         <v>993</v>
       </c>
@@ -25357,7 +25362,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" ht="61" thickBot="1">
       <c r="A481" s="7" t="s">
         <v>883</v>
       </c>
@@ -25386,7 +25391,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" ht="61" thickBot="1">
       <c r="A482" s="7" t="s">
         <v>884</v>
       </c>
@@ -25415,7 +25420,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" ht="46" thickBot="1">
       <c r="A483" s="7" t="s">
         <v>885</v>
       </c>
@@ -25440,7 +25445,7 @@
       </c>
       <c r="I483" s="16"/>
     </row>
-    <row r="484" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" ht="31" thickBot="1">
       <c r="A484" s="7" t="s">
         <v>886</v>
       </c>
@@ -25465,7 +25470,7 @@
       </c>
       <c r="I484" s="16"/>
     </row>
-    <row r="485" spans="1:9" ht="54.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" ht="61" thickBot="1">
       <c r="A485" s="7" t="s">
         <v>887</v>
       </c>
@@ -25494,7 +25499,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" ht="46" thickBot="1">
       <c r="A486" s="7" t="s">
         <v>888</v>
       </c>
@@ -25521,7 +25526,7 @@
       </c>
       <c r="I486" s="16"/>
     </row>
-    <row r="487" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" ht="46" thickBot="1">
       <c r="A487" s="7" t="s">
         <v>889</v>
       </c>
@@ -25550,18 +25555,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" ht="76" thickBot="1">
       <c r="A488" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C488" s="13" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D488" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E488" s="28" t="s">
         <v>24</v>
@@ -25579,18 +25584,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" ht="46" thickBot="1">
       <c r="A489" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C489" s="13" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D489" s="7" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E489" s="28" t="s">
         <v>24</v>
@@ -25608,18 +25613,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="68.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" ht="91" thickBot="1">
       <c r="A490" s="7" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C490" s="13" t="s">
-        <v>1128</v>
+        <v>1147</v>
       </c>
       <c r="D490" s="53" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E490" s="28" t="s">
         <v>24</v>
@@ -25637,18 +25642,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" ht="46" thickBot="1">
       <c r="A491" s="7" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>848</v>
       </c>
       <c r="C491" s="13" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D491" s="53" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E491" s="28" t="s">
         <v>24</v>
@@ -25666,7 +25671,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" ht="46" thickBot="1">
       <c r="A492" s="7" t="s">
         <v>891</v>
       </c>
@@ -25674,7 +25679,7 @@
         <v>7</v>
       </c>
       <c r="C492" s="13" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D492" s="53" t="s">
         <v>968</v>
@@ -25693,7 +25698,7 @@
       </c>
       <c r="I492" s="16"/>
     </row>
-    <row r="493" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" ht="46" thickBot="1">
       <c r="A493" s="7" t="s">
         <v>892</v>
       </c>
@@ -25722,18 +25727,18 @@
         <v>932</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" ht="46" thickBot="1">
       <c r="A494" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B494" s="57" t="s">
         <v>848</v>
       </c>
       <c r="C494" s="13" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D494" s="53" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E494" s="28" t="s">
         <v>24</v>
@@ -25749,18 +25754,18 @@
       </c>
       <c r="I494" s="54"/>
     </row>
-    <row r="495" spans="1:9" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" ht="46" thickBot="1">
       <c r="A495" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B495" s="57" t="s">
         <v>848</v>
       </c>
       <c r="C495" s="13" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D495" s="53" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="E495" s="28" t="s">
         <v>24</v>
@@ -25778,7 +25783,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:9" ht="30">
       <c r="A496" s="27" t="s">
         <v>894</v>
       </c>
@@ -25803,7 +25808,7 @@
       </c>
       <c r="I496" s="16"/>
     </row>
-    <row r="497" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:9" ht="90">
       <c r="A497" s="36" t="s">
         <v>897</v>
       </c>
@@ -25830,6 +25835,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
     <mergeCell ref="B18:I18"/>
@@ -25837,11 +25847,6 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G404:G415 F413:F414 F372:F373 F330:F331 G318:G331 F297:F298 G294:G298 F279:F280 G271:G280 F213:F214 G194:G216 G186:G190 G156:G160 G111:G116 G23:G80 E316:G316 B137:B301 C20:G20 A449:E449 C455:E455 C450:E453 D454:E454 E23:E135 F28:F130 B23:B122 E317:E383 B305:B383 F348:F361 G348:G374 B455:B460 G456:G460 E456:E460 E137:E301 B464:B467 E464:E476 F464:F469 E400:E448 B400:B448">
@@ -31369,20 +31374,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 F20:F497">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4 F20:F497" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 E20:E497">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 E20:E497" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 G20:G497">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 G20:G497" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H497">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H497" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
   </dataValidations>
@@ -31402,6 +31407,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F2EA47BB262D974097182E2CA8AB13E1" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74597e8d9e42e7e4fc8eda6d37675aa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -31450,32 +31470,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31495,9 +31493,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6D33261-F3C6-4621-88F1-D76E5ABE1865}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB2DE12-5EF6-4CF2-820D-5F9FE329E08E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>